--- a/OpenCart-RTM.xlsx
+++ b/OpenCart-RTM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b85abe1dd47c73/Desktop/OpenCart testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b85abe1dd47c73/Desktop/kk/OpenCart-testing-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC1048EAF11C476A5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE53DE9-4886-4113-BBE9-3C2589C2EC39}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABDACC1048EAF11C476A5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF291A24-C220-4F88-9A4F-9379E746109C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t xml:space="preserve"> Requirement ID</t>
   </si>
@@ -204,6 +204,23 @@
 TC_SF_020
 TC_SF_021
 TC_SF_022</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>Validate the working of Add to Cart functionality</t>
+  </si>
+  <si>
+    <t>TC_ATC_001
+TC_ATC_002
+TC_ATC_003
+TC_ATC_004
+TC_ATC_005
+TC_ATC_006
+TC_ATC_007
+TC_ATC_008
+TC_ATC_009</t>
   </si>
 </sst>
 </file>
@@ -368,10 +385,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -655,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,60 +691,60 @@
         <v>6</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -813,20 +830,34 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
